--- a/configs/Windows11/Windows11-22H1-Applications.xlsx
+++ b/configs/Windows11/Windows11-22H1-Applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/projects/AppLocker/configs/Windows11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{175DD9E7-F086-4B45-B747-698B58599035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F7732-58DE-994E-A759-94BEFD5588C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{30BAF23F-01F7-42F5-AEAC-F4864E371522}"/>
   </bookViews>
@@ -3532,44 +3532,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9.5"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3741,6 +3703,44 @@
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9.5"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3755,18 +3755,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B6A4C1-25CC-B140-A7E9-7963B33C6318}" name="Table1" displayName="Table1" ref="A1:I343" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1B6A4C1-25CC-B140-A7E9-7963B33C6318}" name="Table1" displayName="Table1" ref="A1:I343" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:I343" xr:uid="{59BA9F19-D965-40AA-B51B-95124554F9EF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{85FD6BDE-6DBE-C74E-B801-38EFF2BC22FE}" name="FileType" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{AE05F186-DA0E-9044-9EF1-F5A5BD287D10}" name="Enforce" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{504AA3A1-F496-C34D-80B8-50B19E758B23}" name="RuleType" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{0DB87740-D358-5E48-81F7-E246A48D411D}" name="UserOrGroup" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{6CDA8633-73C3-C548-BCED-7D10DDC590FA}" name="Action" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B8A7DF39-23A2-0A4E-ADA4-BE83B1BB5326}" name="RuleInfo" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{1F8B1EB6-558C-444A-AFA3-DA13162897B8}" name="Exceptions" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1831670B-22D3-9D47-8A7D-DC881A59E09F}" name="Name" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{DBD7D18F-8FC6-0F40-8C6B-2C4221DC6D5F}" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{85FD6BDE-6DBE-C74E-B801-38EFF2BC22FE}" name="FileType" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{AE05F186-DA0E-9044-9EF1-F5A5BD287D10}" name="Enforce" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{504AA3A1-F496-C34D-80B8-50B19E758B23}" name="RuleType" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{0DB87740-D358-5E48-81F7-E246A48D411D}" name="UserOrGroup" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6CDA8633-73C3-C548-BCED-7D10DDC590FA}" name="Action" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B8A7DF39-23A2-0A4E-ADA4-BE83B1BB5326}" name="RuleInfo" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{1F8B1EB6-558C-444A-AFA3-DA13162897B8}" name="Exceptions" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1831670B-22D3-9D47-8A7D-DC881A59E09F}" name="Name" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{DBD7D18F-8FC6-0F40-8C6B-2C4221DC6D5F}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4072,8 +4072,8 @@
   <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A335" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F178" sqref="F178"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4500,7 +4500,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>9</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>9</v>
       </c>
@@ -4878,7 +4878,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>9</v>
       </c>
@@ -4905,7 +4905,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -4932,7 +4932,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>9</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>119</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>119</v>
       </c>
@@ -10359,7 +10359,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>119</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A236" s="1" t="s">
         <v>119</v>
       </c>
@@ -10548,7 +10548,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>119</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>119</v>
       </c>
@@ -10656,7 +10656,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>119</v>
       </c>
@@ -10683,7 +10683,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>119</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>119</v>
       </c>
@@ -10953,7 +10953,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>119</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>119</v>
       </c>
@@ -11034,7 +11034,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>119</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>119</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>119</v>
       </c>

--- a/configs/Windows11/Windows11-22H1-Applications.xlsx
+++ b/configs/Windows11/Windows11-22H1-Applications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/projects/AppLocker/configs/Windows11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F7732-58DE-994E-A759-94BEFD5588C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F6C59C-CAB3-4F4E-B58F-C25B5800025F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19900" xr2:uid="{30BAF23F-01F7-42F5-AEAC-F4864E371522}"/>
   </bookViews>
@@ -4072,8 +4072,8 @@
   <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4083,7 +4083,7 @@
     <col min="3" max="3" width="10.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="19.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="64" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.33203125" style="2" customWidth="1"/>
     <col min="7" max="8" width="50.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="205.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1640625" style="2"/>
@@ -4174,7 +4174,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4419,7 +4419,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
@@ -4527,7 +4527,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>9</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>9</v>
       </c>
@@ -4635,7 +4635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>9</v>
       </c>
@@ -4716,7 +4716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="98" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>9</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>9</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>9</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -5121,7 +5121,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>9</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>9</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>9</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>9</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>9</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>86</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>86</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:9" ht="168" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>97</v>
       </c>
@@ -5713,7 +5713,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>97</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>97</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="168" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>119</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>119</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>119</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>119</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>119</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>119</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>119</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>119</v>
       </c>
@@ -6363,7 +6363,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>119</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>119</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
@@ -6444,7 +6444,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>119</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>119</v>
       </c>
@@ -6498,7 +6498,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>119</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>119</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>119</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -6606,7 +6606,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>119</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>119</v>
       </c>
@@ -7011,7 +7011,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -7038,7 +7038,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>119</v>
       </c>
@@ -7065,7 +7065,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>119</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>119</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>119</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>119</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
@@ -7227,7 +7227,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>119</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>119</v>
       </c>
@@ -7281,7 +7281,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>119</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
@@ -7335,7 +7335,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>119</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>119</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>119</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>119</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>119</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>119</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>119</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>119</v>
       </c>
@@ -7551,7 +7551,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>119</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>119</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>119</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>119</v>
       </c>
@@ -8361,7 +8361,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>119</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>119</v>
       </c>
@@ -8415,7 +8415,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>119</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>119</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>119</v>
       </c>
@@ -8496,7 +8496,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>119</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>119</v>
       </c>
@@ -8550,7 +8550,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>119</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>119</v>
       </c>
@@ -8604,7 +8604,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>119</v>
       </c>
@@ -8631,7 +8631,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>119</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>119</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>119</v>
       </c>
@@ -8712,7 +8712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>119</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>119</v>
       </c>
@@ -8766,7 +8766,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>119</v>
       </c>
@@ -8793,7 +8793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>119</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>119</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>119</v>
       </c>
@@ -8874,7 +8874,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>119</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>119</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>119</v>
       </c>
@@ -8955,7 +8955,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>119</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>119</v>
       </c>
@@ -9009,7 +9009,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>119</v>
       </c>
@@ -9036,7 +9036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>119</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>119</v>
       </c>
@@ -9090,7 +9090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>119</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>119</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>119</v>
       </c>
@@ -9171,7 +9171,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>119</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>119</v>
       </c>
@@ -9225,7 +9225,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>119</v>
       </c>
@@ -9252,7 +9252,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>119</v>
       </c>
@@ -9279,7 +9279,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>119</v>
       </c>
@@ -9306,7 +9306,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>119</v>
       </c>
@@ -9333,7 +9333,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>119</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>119</v>
       </c>
@@ -9387,7 +9387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>119</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>119</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>119</v>
       </c>
@@ -10386,7 +10386,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>119</v>
       </c>
@@ -10413,7 +10413,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>119</v>
       </c>
@@ -10467,7 +10467,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>119</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>119</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>119</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>119</v>
       </c>
@@ -10629,7 +10629,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>119</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>119</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>119</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>119</v>
       </c>
@@ -10791,7 +10791,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>119</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>119</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>119</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>119</v>
       </c>
@@ -10926,7 +10926,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>119</v>
       </c>
@@ -11007,7 +11007,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>119</v>
       </c>
@@ -11061,7 +11061,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>119</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>119</v>
       </c>
@@ -11142,7 +11142,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>119</v>
       </c>
@@ -11304,7 +11304,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>119</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>119</v>
       </c>
@@ -11358,7 +11358,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>119</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>119</v>
       </c>
@@ -11412,7 +11412,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>119</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>119</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>119</v>
       </c>
@@ -11493,7 +11493,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>119</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>119</v>
       </c>
@@ -11547,7 +11547,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>119</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>119</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>119</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>119</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>119</v>
       </c>
@@ -11682,7 +11682,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>119</v>
       </c>
@@ -11709,7 +11709,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>119</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>119</v>
       </c>
@@ -12330,7 +12330,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>119</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>119</v>
       </c>
@@ -12384,7 +12384,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>119</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>119</v>
       </c>
@@ -12438,7 +12438,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>119</v>
       </c>
@@ -12465,7 +12465,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>119</v>
       </c>
@@ -12492,7 +12492,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>119</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>119</v>
       </c>
@@ -12546,7 +12546,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>119</v>
       </c>
@@ -12573,7 +12573,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>119</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>119</v>
       </c>
@@ -12627,7 +12627,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>119</v>
       </c>
@@ -12654,7 +12654,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>119</v>
       </c>
@@ -12789,7 +12789,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>119</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>119</v>
       </c>
@@ -12843,7 +12843,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>119</v>
       </c>
@@ -12870,7 +12870,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>119</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>119</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>119</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>119</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>119</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>119</v>
       </c>
@@ -13086,7 +13086,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>119</v>
       </c>
@@ -13113,7 +13113,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>119</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>119</v>
       </c>
@@ -13167,7 +13167,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>119</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>119</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>119</v>
       </c>
@@ -13248,7 +13248,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>119</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>119</v>
       </c>
@@ -13302,7 +13302,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="84" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:9" ht="70" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>119</v>
       </c>
